--- a/Data/EC/NIT-9009304459.xlsx
+++ b/Data/EC/NIT-9009304459.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0EE75A22-0E11-4036-8548-814DB2234314}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{38BBAFDA-A7D3-4024-B542-E8C15ED83FEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{230198DA-3B38-4E0E-9125-42ECD539B277}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{30855DB0-D016-448B-AE63-56795A311A7B}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="42">
   <si>
     <t>Tipo Doc Trabajador</t>
   </si>
@@ -80,52 +80,55 @@
     <t>MARYAN JOSE UMAÑA PEÑA</t>
   </si>
   <si>
+    <t>2507</t>
+  </si>
+  <si>
+    <t>2506</t>
+  </si>
+  <si>
+    <t>2505</t>
+  </si>
+  <si>
+    <t>2504</t>
+  </si>
+  <si>
+    <t>2503</t>
+  </si>
+  <si>
+    <t>2502</t>
+  </si>
+  <si>
+    <t>2501</t>
+  </si>
+  <si>
+    <t>2412</t>
+  </si>
+  <si>
+    <t>2411</t>
+  </si>
+  <si>
+    <t>2410</t>
+  </si>
+  <si>
+    <t>2409</t>
+  </si>
+  <si>
+    <t>2408</t>
+  </si>
+  <si>
+    <t>2407</t>
+  </si>
+  <si>
+    <t>2406</t>
+  </si>
+  <si>
+    <t>2405</t>
+  </si>
+  <si>
+    <t>2404</t>
+  </si>
+  <si>
     <t>2403</t>
-  </si>
-  <si>
-    <t>2404</t>
-  </si>
-  <si>
-    <t>2405</t>
-  </si>
-  <si>
-    <t>2406</t>
-  </si>
-  <si>
-    <t>2407</t>
-  </si>
-  <si>
-    <t>2408</t>
-  </si>
-  <si>
-    <t>2409</t>
-  </si>
-  <si>
-    <t>2410</t>
-  </si>
-  <si>
-    <t>2411</t>
-  </si>
-  <si>
-    <t>2412</t>
-  </si>
-  <si>
-    <t>2501</t>
-  </si>
-  <si>
-    <t>2502</t>
-  </si>
-  <si>
-    <t>2503</t>
-  </si>
-  <si>
-    <t>2504</t>
-  </si>
-  <si>
-    <t>2505</t>
-  </si>
-  <si>
-    <t>2506</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -169,7 +172,7 @@
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_-&quot;$&quot;\ * #,##0_-;\-&quot;$&quot;\ * #,##0_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -539,7 +542,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{72C524A7-338C-1A9B-D6ED-8218606458F3}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F6C7C2EE-EA68-045A-D9AE-3A77EE9C2826}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -890,32 +893,32 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE857B3C-572C-4459-9474-19DBBB82060A}">
-  <dimension ref="B2:J38"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21EE0C62-04D5-44EC-854D-CD22D2A0C998}">
+  <dimension ref="B2:J39"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:J5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="3.6328125" customWidth="1"/>
-    <col min="2" max="2" width="16.90625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.7265625" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="26.26953125" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.7265625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.54296875" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.1796875" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.90625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.81640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.1796875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.36328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.36328125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.08984375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10">
+    <row r="2" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B2" s="3"/>
       <c r="C2" s="28"/>
       <c r="D2" s="29" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E2" s="29"/>
       <c r="F2" s="29"/>
@@ -924,7 +927,7 @@
       <c r="I2" s="29"/>
       <c r="J2" s="29"/>
     </row>
-    <row r="3" spans="2:10">
+    <row r="3" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B3" s="3"/>
       <c r="C3" s="28"/>
       <c r="D3" s="30"/>
@@ -935,7 +938,7 @@
       <c r="I3" s="30"/>
       <c r="J3" s="30"/>
     </row>
-    <row r="4" spans="2:10">
+    <row r="4" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B4" s="3"/>
       <c r="C4" s="28"/>
       <c r="D4" s="30"/>
@@ -946,7 +949,7 @@
       <c r="I4" s="30"/>
       <c r="J4" s="30"/>
     </row>
-    <row r="5" spans="2:10">
+    <row r="5" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B5" s="3"/>
       <c r="C5" s="28"/>
       <c r="D5" s="31"/>
@@ -957,10 +960,10 @@
       <c r="I5" s="31"/>
       <c r="J5" s="31"/>
     </row>
-    <row r="6" spans="2:10" ht="9" customHeight="1"/>
-    <row r="7" spans="2:10">
+    <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="7" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B7" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="27"/>
@@ -973,8 +976,8 @@
       <c r="I7" s="6"/>
       <c r="J7" s="6"/>
     </row>
-    <row r="8" spans="2:10" ht="7.5" customHeight="1"/>
-    <row r="9" spans="2:10">
+    <row r="8" spans="2:10" ht="7.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="9" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B9" s="4" t="s">
         <v>6</v>
       </c>
@@ -989,15 +992,15 @@
       <c r="I9" s="6"/>
       <c r="J9" s="6"/>
     </row>
-    <row r="10" spans="2:10" ht="6.75" customHeight="1"/>
-    <row r="11" spans="2:10">
+    <row r="10" spans="2:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="11" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B11" s="4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="27"/>
       <c r="E11" s="7">
-        <v>2888000</v>
+        <v>3068000</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
@@ -1005,27 +1008,27 @@
       <c r="I11" s="7"/>
       <c r="J11" s="7"/>
     </row>
-    <row r="12" spans="2:10" ht="4.5" customHeight="1"/>
-    <row r="13" spans="2:10">
+    <row r="12" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="13" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B13" s="9" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C13" s="5">
         <v>2</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="8" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F13" s="5">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
       <c r="I13" s="5"/>
       <c r="J13" s="5"/>
     </row>
-    <row r="15" spans="2:10">
+    <row r="15" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B15" s="10" t="s">
         <v>0</v>
       </c>
@@ -1045,16 +1048,16 @@
         <v>5</v>
       </c>
       <c r="H15" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="I15" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="I15" s="13" t="s">
-        <v>35</v>
-      </c>
       <c r="J15" s="14" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="16" spans="2:10">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="16" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B16" s="15" t="s">
         <v>8</v>
       </c>
@@ -1077,7 +1080,7 @@
       <c r="I16" s="19"/>
       <c r="J16" s="20"/>
     </row>
-    <row r="17" spans="2:10">
+    <row r="17" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B17" s="15" t="s">
         <v>8</v>
       </c>
@@ -1091,16 +1094,16 @@
         <v>14</v>
       </c>
       <c r="F17" s="18">
-        <v>108000</v>
+        <v>180000</v>
       </c>
       <c r="G17" s="18">
-        <v>4500000</v>
+        <v>2701429</v>
       </c>
       <c r="H17" s="19"/>
       <c r="I17" s="19"/>
       <c r="J17" s="20"/>
     </row>
-    <row r="18" spans="2:10">
+    <row r="18" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B18" s="15" t="s">
         <v>8</v>
       </c>
@@ -1117,13 +1120,13 @@
         <v>180000</v>
       </c>
       <c r="G18" s="18">
-        <v>4500000</v>
+        <v>2701429</v>
       </c>
       <c r="H18" s="19"/>
       <c r="I18" s="19"/>
       <c r="J18" s="20"/>
     </row>
-    <row r="19" spans="2:10">
+    <row r="19" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B19" s="15" t="s">
         <v>8</v>
       </c>
@@ -1140,13 +1143,13 @@
         <v>180000</v>
       </c>
       <c r="G19" s="18">
-        <v>4500000</v>
+        <v>2701429</v>
       </c>
       <c r="H19" s="19"/>
       <c r="I19" s="19"/>
       <c r="J19" s="20"/>
     </row>
-    <row r="20" spans="2:10">
+    <row r="20" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B20" s="15" t="s">
         <v>8</v>
       </c>
@@ -1163,13 +1166,13 @@
         <v>180000</v>
       </c>
       <c r="G20" s="18">
-        <v>4500000</v>
+        <v>2701429</v>
       </c>
       <c r="H20" s="19"/>
       <c r="I20" s="19"/>
       <c r="J20" s="20"/>
     </row>
-    <row r="21" spans="2:10">
+    <row r="21" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B21" s="15" t="s">
         <v>8</v>
       </c>
@@ -1186,13 +1189,13 @@
         <v>180000</v>
       </c>
       <c r="G21" s="18">
-        <v>4500000</v>
+        <v>2701429</v>
       </c>
       <c r="H21" s="19"/>
       <c r="I21" s="19"/>
       <c r="J21" s="20"/>
     </row>
-    <row r="22" spans="2:10">
+    <row r="22" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B22" s="15" t="s">
         <v>8</v>
       </c>
@@ -1209,13 +1212,13 @@
         <v>180000</v>
       </c>
       <c r="G22" s="18">
-        <v>4500000</v>
+        <v>2701429</v>
       </c>
       <c r="H22" s="19"/>
       <c r="I22" s="19"/>
       <c r="J22" s="20"/>
     </row>
-    <row r="23" spans="2:10">
+    <row r="23" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B23" s="15" t="s">
         <v>8</v>
       </c>
@@ -1232,13 +1235,13 @@
         <v>180000</v>
       </c>
       <c r="G23" s="18">
-        <v>4500000</v>
+        <v>2701429</v>
       </c>
       <c r="H23" s="19"/>
       <c r="I23" s="19"/>
       <c r="J23" s="20"/>
     </row>
-    <row r="24" spans="2:10">
+    <row r="24" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B24" s="15" t="s">
         <v>8</v>
       </c>
@@ -1255,13 +1258,13 @@
         <v>180000</v>
       </c>
       <c r="G24" s="18">
-        <v>4500000</v>
+        <v>2701429</v>
       </c>
       <c r="H24" s="19"/>
       <c r="I24" s="19"/>
       <c r="J24" s="20"/>
     </row>
-    <row r="25" spans="2:10">
+    <row r="25" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B25" s="15" t="s">
         <v>8</v>
       </c>
@@ -1278,13 +1281,13 @@
         <v>180000</v>
       </c>
       <c r="G25" s="18">
-        <v>4500000</v>
+        <v>2701429</v>
       </c>
       <c r="H25" s="19"/>
       <c r="I25" s="19"/>
       <c r="J25" s="20"/>
     </row>
-    <row r="26" spans="2:10">
+    <row r="26" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B26" s="15" t="s">
         <v>8</v>
       </c>
@@ -1301,13 +1304,13 @@
         <v>180000</v>
       </c>
       <c r="G26" s="18">
-        <v>4500000</v>
+        <v>2701429</v>
       </c>
       <c r="H26" s="19"/>
       <c r="I26" s="19"/>
       <c r="J26" s="20"/>
     </row>
-    <row r="27" spans="2:10">
+    <row r="27" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B27" s="15" t="s">
         <v>8</v>
       </c>
@@ -1324,13 +1327,13 @@
         <v>180000</v>
       </c>
       <c r="G27" s="18">
-        <v>4500000</v>
+        <v>2701429</v>
       </c>
       <c r="H27" s="19"/>
       <c r="I27" s="19"/>
       <c r="J27" s="20"/>
     </row>
-    <row r="28" spans="2:10">
+    <row r="28" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B28" s="15" t="s">
         <v>8</v>
       </c>
@@ -1347,13 +1350,13 @@
         <v>180000</v>
       </c>
       <c r="G28" s="18">
-        <v>4500000</v>
+        <v>2701429</v>
       </c>
       <c r="H28" s="19"/>
       <c r="I28" s="19"/>
       <c r="J28" s="20"/>
     </row>
-    <row r="29" spans="2:10">
+    <row r="29" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B29" s="15" t="s">
         <v>8</v>
       </c>
@@ -1370,13 +1373,13 @@
         <v>180000</v>
       </c>
       <c r="G29" s="18">
-        <v>4500000</v>
+        <v>2701429</v>
       </c>
       <c r="H29" s="19"/>
       <c r="I29" s="19"/>
       <c r="J29" s="20"/>
     </row>
-    <row r="30" spans="2:10">
+    <row r="30" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B30" s="15" t="s">
         <v>8</v>
       </c>
@@ -1393,13 +1396,13 @@
         <v>180000</v>
       </c>
       <c r="G30" s="18">
-        <v>4500000</v>
+        <v>2701429</v>
       </c>
       <c r="H30" s="19"/>
       <c r="I30" s="19"/>
       <c r="J30" s="20"/>
     </row>
-    <row r="31" spans="2:10">
+    <row r="31" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B31" s="15" t="s">
         <v>8</v>
       </c>
@@ -1416,49 +1419,61 @@
         <v>180000</v>
       </c>
       <c r="G31" s="18">
-        <v>4500000</v>
+        <v>2701429</v>
       </c>
       <c r="H31" s="19"/>
       <c r="I31" s="19"/>
       <c r="J31" s="20"/>
     </row>
-    <row r="32" spans="2:10">
-      <c r="B32" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="C32" s="22" t="s">
-        <v>12</v>
-      </c>
-      <c r="D32" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="E32" s="22" t="s">
+    <row r="32" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B32" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C32" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="D32" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="E32" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="F32" s="24">
+      <c r="F32" s="18">
         <v>180000</v>
       </c>
-      <c r="G32" s="24">
-        <v>4500000</v>
-      </c>
-      <c r="H32" s="25"/>
-      <c r="I32" s="25"/>
-      <c r="J32" s="26"/>
-    </row>
-    <row r="37" spans="2:10">
-      <c r="B37" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="C37" s="32"/>
-      <c r="H37" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="I37" s="1"/>
-      <c r="J37" s="1"/>
-    </row>
-    <row r="38" spans="2:10">
+      <c r="G32" s="18">
+        <v>2701429</v>
+      </c>
+      <c r="H32" s="19"/>
+      <c r="I32" s="19"/>
+      <c r="J32" s="20"/>
+    </row>
+    <row r="33" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B33" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C33" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="D33" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="E33" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="F33" s="24">
+        <v>108000</v>
+      </c>
+      <c r="G33" s="24">
+        <v>2701429</v>
+      </c>
+      <c r="H33" s="25"/>
+      <c r="I33" s="25"/>
+      <c r="J33" s="26"/>
+    </row>
+    <row r="38" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B38" s="32" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C38" s="32"/>
       <c r="H38" s="1" t="s">
@@ -1467,12 +1482,23 @@
       <c r="I38" s="1"/>
       <c r="J38" s="1"/>
     </row>
+    <row r="39" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B39" s="32" t="s">
+        <v>39</v>
+      </c>
+      <c r="C39" s="32"/>
+      <c r="H39" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="I39" s="1"/>
+      <c r="J39" s="1"/>
+    </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="B39:C39"/>
     <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="H39:J39"/>
     <mergeCell ref="H38:J38"/>
-    <mergeCell ref="H37:J37"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="D2:J5"/>

--- a/Data/EC/NIT-9009304459.xlsx
+++ b/Data/EC/NIT-9009304459.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{38BBAFDA-A7D3-4024-B542-E8C15ED83FEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B552F40F-4CD7-4B8E-AE90-E85BABBBEE1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{30855DB0-D016-448B-AE63-56795A311A7B}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{84442248-70C1-42F9-B5C0-5485E7A58D32}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="43">
   <si>
     <t>Tipo Doc Trabajador</t>
   </si>
@@ -80,55 +80,58 @@
     <t>MARYAN JOSE UMAÑA PEÑA</t>
   </si>
   <si>
+    <t>2403</t>
+  </si>
+  <si>
+    <t>2404</t>
+  </si>
+  <si>
+    <t>2405</t>
+  </si>
+  <si>
+    <t>2406</t>
+  </si>
+  <si>
+    <t>2407</t>
+  </si>
+  <si>
+    <t>2408</t>
+  </si>
+  <si>
+    <t>2409</t>
+  </si>
+  <si>
+    <t>2410</t>
+  </si>
+  <si>
+    <t>2411</t>
+  </si>
+  <si>
+    <t>2412</t>
+  </si>
+  <si>
+    <t>2501</t>
+  </si>
+  <si>
+    <t>2502</t>
+  </si>
+  <si>
+    <t>2503</t>
+  </si>
+  <si>
+    <t>2504</t>
+  </si>
+  <si>
+    <t>2505</t>
+  </si>
+  <si>
+    <t>2506</t>
+  </si>
+  <si>
     <t>2507</t>
   </si>
   <si>
-    <t>2506</t>
-  </si>
-  <si>
-    <t>2505</t>
-  </si>
-  <si>
-    <t>2504</t>
-  </si>
-  <si>
-    <t>2503</t>
-  </si>
-  <si>
-    <t>2502</t>
-  </si>
-  <si>
-    <t>2501</t>
-  </si>
-  <si>
-    <t>2412</t>
-  </si>
-  <si>
-    <t>2411</t>
-  </si>
-  <si>
-    <t>2410</t>
-  </si>
-  <si>
-    <t>2409</t>
-  </si>
-  <si>
-    <t>2408</t>
-  </si>
-  <si>
-    <t>2407</t>
-  </si>
-  <si>
-    <t>2406</t>
-  </si>
-  <si>
-    <t>2405</t>
-  </si>
-  <si>
-    <t>2404</t>
-  </si>
-  <si>
-    <t>2403</t>
+    <t>2508</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -172,7 +175,7 @@
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_-&quot;$&quot;\ * #,##0_-;\-&quot;$&quot;\ * #,##0_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -227,7 +230,9 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -240,9 +245,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -442,23 +445,23 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -486,10 +489,10 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -527,13 +530,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>667900</xdr:colOff>
+      <xdr:colOff>496450</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>62300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>430650</xdr:colOff>
+      <xdr:colOff>259200</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>121850</xdr:rowOff>
     </xdr:to>
@@ -542,7 +545,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F6C7C2EE-EA68-045A-D9AE-3A77EE9C2826}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E1018701-848F-D2A2-94BB-D3BAA53BB9B1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -564,7 +567,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="921900" y="246450"/>
+          <a:off x="750450" y="246450"/>
           <a:ext cx="975600" cy="612000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -893,32 +896,32 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21EE0C62-04D5-44EC-854D-CD22D2A0C998}">
-  <dimension ref="B2:J39"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC059940-774C-4503-9046-FACAB6E8CFE5}">
+  <dimension ref="B2:J40"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:J5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="3.6328125" customWidth="1"/>
-    <col min="2" max="2" width="18.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.7265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.26953125" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.1796875" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.36328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.36328125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.08984375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.90625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.81640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.6328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7265625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.90625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.81640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:10">
       <c r="B2" s="3"/>
       <c r="C2" s="28"/>
       <c r="D2" s="29" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E2" s="29"/>
       <c r="F2" s="29"/>
@@ -927,7 +930,7 @@
       <c r="I2" s="29"/>
       <c r="J2" s="29"/>
     </row>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:10">
       <c r="B3" s="3"/>
       <c r="C3" s="28"/>
       <c r="D3" s="30"/>
@@ -938,7 +941,7 @@
       <c r="I3" s="30"/>
       <c r="J3" s="30"/>
     </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:10">
       <c r="B4" s="3"/>
       <c r="C4" s="28"/>
       <c r="D4" s="30"/>
@@ -949,7 +952,7 @@
       <c r="I4" s="30"/>
       <c r="J4" s="30"/>
     </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:10">
       <c r="B5" s="3"/>
       <c r="C5" s="28"/>
       <c r="D5" s="31"/>
@@ -960,10 +963,10 @@
       <c r="I5" s="31"/>
       <c r="J5" s="31"/>
     </row>
-    <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:10" ht="9" customHeight="1"/>
+    <row r="7" spans="2:10">
       <c r="B7" s="4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="27"/>
@@ -976,8 +979,8 @@
       <c r="I7" s="6"/>
       <c r="J7" s="6"/>
     </row>
-    <row r="8" spans="2:10" ht="7.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:10" ht="7.5" customHeight="1"/>
+    <row r="9" spans="2:10">
       <c r="B9" s="4" t="s">
         <v>6</v>
       </c>
@@ -992,15 +995,15 @@
       <c r="I9" s="6"/>
       <c r="J9" s="6"/>
     </row>
-    <row r="10" spans="2:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:10" ht="6.75" customHeight="1"/>
+    <row r="11" spans="2:10">
       <c r="B11" s="4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="27"/>
       <c r="E11" s="7">
-        <v>3068000</v>
+        <v>3248000</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
@@ -1008,27 +1011,27 @@
       <c r="I11" s="7"/>
       <c r="J11" s="7"/>
     </row>
-    <row r="12" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:10" ht="4.5" customHeight="1"/>
+    <row r="13" spans="2:10">
       <c r="B13" s="9" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C13" s="5">
         <v>2</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="8" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F13" s="5">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
       <c r="I13" s="5"/>
       <c r="J13" s="5"/>
     </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:10">
       <c r="B15" s="10" t="s">
         <v>0</v>
       </c>
@@ -1048,16 +1051,16 @@
         <v>5</v>
       </c>
       <c r="H15" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="I15" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="I15" s="13" t="s">
-        <v>36</v>
-      </c>
       <c r="J15" s="14" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.35">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="16" spans="2:10">
       <c r="B16" s="15" t="s">
         <v>8</v>
       </c>
@@ -1080,7 +1083,7 @@
       <c r="I16" s="19"/>
       <c r="J16" s="20"/>
     </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:10">
       <c r="B17" s="15" t="s">
         <v>8</v>
       </c>
@@ -1094,16 +1097,16 @@
         <v>14</v>
       </c>
       <c r="F17" s="18">
-        <v>180000</v>
+        <v>108000</v>
       </c>
       <c r="G17" s="18">
-        <v>2701429</v>
+        <v>4500000</v>
       </c>
       <c r="H17" s="19"/>
       <c r="I17" s="19"/>
       <c r="J17" s="20"/>
     </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:10">
       <c r="B18" s="15" t="s">
         <v>8</v>
       </c>
@@ -1120,13 +1123,13 @@
         <v>180000</v>
       </c>
       <c r="G18" s="18">
-        <v>2701429</v>
+        <v>4500000</v>
       </c>
       <c r="H18" s="19"/>
       <c r="I18" s="19"/>
       <c r="J18" s="20"/>
     </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:10">
       <c r="B19" s="15" t="s">
         <v>8</v>
       </c>
@@ -1143,13 +1146,13 @@
         <v>180000</v>
       </c>
       <c r="G19" s="18">
-        <v>2701429</v>
+        <v>4500000</v>
       </c>
       <c r="H19" s="19"/>
       <c r="I19" s="19"/>
       <c r="J19" s="20"/>
     </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:10">
       <c r="B20" s="15" t="s">
         <v>8</v>
       </c>
@@ -1166,13 +1169,13 @@
         <v>180000</v>
       </c>
       <c r="G20" s="18">
-        <v>2701429</v>
+        <v>4500000</v>
       </c>
       <c r="H20" s="19"/>
       <c r="I20" s="19"/>
       <c r="J20" s="20"/>
     </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:10">
       <c r="B21" s="15" t="s">
         <v>8</v>
       </c>
@@ -1189,13 +1192,13 @@
         <v>180000</v>
       </c>
       <c r="G21" s="18">
-        <v>2701429</v>
+        <v>4500000</v>
       </c>
       <c r="H21" s="19"/>
       <c r="I21" s="19"/>
       <c r="J21" s="20"/>
     </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:10">
       <c r="B22" s="15" t="s">
         <v>8</v>
       </c>
@@ -1212,13 +1215,13 @@
         <v>180000</v>
       </c>
       <c r="G22" s="18">
-        <v>2701429</v>
+        <v>4500000</v>
       </c>
       <c r="H22" s="19"/>
       <c r="I22" s="19"/>
       <c r="J22" s="20"/>
     </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:10">
       <c r="B23" s="15" t="s">
         <v>8</v>
       </c>
@@ -1235,13 +1238,13 @@
         <v>180000</v>
       </c>
       <c r="G23" s="18">
-        <v>2701429</v>
+        <v>4500000</v>
       </c>
       <c r="H23" s="19"/>
       <c r="I23" s="19"/>
       <c r="J23" s="20"/>
     </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:10">
       <c r="B24" s="15" t="s">
         <v>8</v>
       </c>
@@ -1258,13 +1261,13 @@
         <v>180000</v>
       </c>
       <c r="G24" s="18">
-        <v>2701429</v>
+        <v>4500000</v>
       </c>
       <c r="H24" s="19"/>
       <c r="I24" s="19"/>
       <c r="J24" s="20"/>
     </row>
-    <row r="25" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:10">
       <c r="B25" s="15" t="s">
         <v>8</v>
       </c>
@@ -1281,13 +1284,13 @@
         <v>180000</v>
       </c>
       <c r="G25" s="18">
-        <v>2701429</v>
+        <v>4500000</v>
       </c>
       <c r="H25" s="19"/>
       <c r="I25" s="19"/>
       <c r="J25" s="20"/>
     </row>
-    <row r="26" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:10">
       <c r="B26" s="15" t="s">
         <v>8</v>
       </c>
@@ -1304,13 +1307,13 @@
         <v>180000</v>
       </c>
       <c r="G26" s="18">
-        <v>2701429</v>
+        <v>4500000</v>
       </c>
       <c r="H26" s="19"/>
       <c r="I26" s="19"/>
       <c r="J26" s="20"/>
     </row>
-    <row r="27" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:10">
       <c r="B27" s="15" t="s">
         <v>8</v>
       </c>
@@ -1327,13 +1330,13 @@
         <v>180000</v>
       </c>
       <c r="G27" s="18">
-        <v>2701429</v>
+        <v>4500000</v>
       </c>
       <c r="H27" s="19"/>
       <c r="I27" s="19"/>
       <c r="J27" s="20"/>
     </row>
-    <row r="28" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:10">
       <c r="B28" s="15" t="s">
         <v>8</v>
       </c>
@@ -1350,13 +1353,13 @@
         <v>180000</v>
       </c>
       <c r="G28" s="18">
-        <v>2701429</v>
+        <v>4500000</v>
       </c>
       <c r="H28" s="19"/>
       <c r="I28" s="19"/>
       <c r="J28" s="20"/>
     </row>
-    <row r="29" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:10">
       <c r="B29" s="15" t="s">
         <v>8</v>
       </c>
@@ -1373,13 +1376,13 @@
         <v>180000</v>
       </c>
       <c r="G29" s="18">
-        <v>2701429</v>
+        <v>4500000</v>
       </c>
       <c r="H29" s="19"/>
       <c r="I29" s="19"/>
       <c r="J29" s="20"/>
     </row>
-    <row r="30" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:10">
       <c r="B30" s="15" t="s">
         <v>8</v>
       </c>
@@ -1396,13 +1399,13 @@
         <v>180000</v>
       </c>
       <c r="G30" s="18">
-        <v>2701429</v>
+        <v>4500000</v>
       </c>
       <c r="H30" s="19"/>
       <c r="I30" s="19"/>
       <c r="J30" s="20"/>
     </row>
-    <row r="31" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:10">
       <c r="B31" s="15" t="s">
         <v>8</v>
       </c>
@@ -1419,13 +1422,13 @@
         <v>180000</v>
       </c>
       <c r="G31" s="18">
-        <v>2701429</v>
+        <v>4500000</v>
       </c>
       <c r="H31" s="19"/>
       <c r="I31" s="19"/>
       <c r="J31" s="20"/>
     </row>
-    <row r="32" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:10">
       <c r="B32" s="15" t="s">
         <v>8</v>
       </c>
@@ -1442,49 +1445,61 @@
         <v>180000</v>
       </c>
       <c r="G32" s="18">
-        <v>2701429</v>
+        <v>4500000</v>
       </c>
       <c r="H32" s="19"/>
       <c r="I32" s="19"/>
       <c r="J32" s="20"/>
     </row>
-    <row r="33" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B33" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="C33" s="22" t="s">
-        <v>12</v>
-      </c>
-      <c r="D33" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="E33" s="22" t="s">
+    <row r="33" spans="2:10">
+      <c r="B33" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C33" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="D33" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="E33" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="F33" s="24">
-        <v>108000</v>
-      </c>
-      <c r="G33" s="24">
-        <v>2701429</v>
-      </c>
-      <c r="H33" s="25"/>
-      <c r="I33" s="25"/>
-      <c r="J33" s="26"/>
-    </row>
-    <row r="38" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B38" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="C38" s="32"/>
-      <c r="H38" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="I38" s="1"/>
-      <c r="J38" s="1"/>
-    </row>
-    <row r="39" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="F33" s="18">
+        <v>180000</v>
+      </c>
+      <c r="G33" s="18">
+        <v>4500000</v>
+      </c>
+      <c r="H33" s="19"/>
+      <c r="I33" s="19"/>
+      <c r="J33" s="20"/>
+    </row>
+    <row r="34" spans="2:10">
+      <c r="B34" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C34" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="D34" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="E34" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="F34" s="24">
+        <v>180000</v>
+      </c>
+      <c r="G34" s="24">
+        <v>4500000</v>
+      </c>
+      <c r="H34" s="25"/>
+      <c r="I34" s="25"/>
+      <c r="J34" s="26"/>
+    </row>
+    <row r="39" spans="2:10">
       <c r="B39" s="32" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C39" s="32"/>
       <c r="H39" s="1" t="s">
@@ -1493,12 +1508,23 @@
       <c r="I39" s="1"/>
       <c r="J39" s="1"/>
     </row>
+    <row r="40" spans="2:10">
+      <c r="B40" s="32" t="s">
+        <v>40</v>
+      </c>
+      <c r="C40" s="32"/>
+      <c r="H40" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="I40" s="1"/>
+      <c r="J40" s="1"/>
+    </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="B40:C40"/>
     <mergeCell ref="B39:C39"/>
-    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="H40:J40"/>
     <mergeCell ref="H39:J39"/>
-    <mergeCell ref="H38:J38"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="D2:J5"/>
